--- a/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.04.xlsx
+++ b/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1515" windowWidth="15600" windowHeight="6780" tabRatio="637"/>
+    <workbookView xWindow="720" yWindow="1515" windowWidth="15600" windowHeight="6780" tabRatio="637" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13757" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13763" uniqueCount="860">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2613,6 +2613,15 @@
       </rPr>
       <t>' are not used for DBGEN generation, so they should be belonged to any Level (APP or CORE).</t>
     </r>
+  </si>
+  <si>
+    <t>Comparison with IN Rebid</t>
+  </si>
+  <si>
+    <t>OK Rebid</t>
+  </si>
+  <si>
+    <t>v0.03 changed to number(50),v0.04 changed to number(38).</t>
   </si>
 </sst>
 </file>
@@ -3035,6 +3044,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3085,15 +3103,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3525,7 +3534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3533,7 +3542,7 @@
   <cols>
     <col min="1" max="1" width="19" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="29.5703125" style="9"/>
@@ -3666,15 +3675,15 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="75" t="s">
         <v>855</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="74" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,9 +3750,9 @@
   </sheetPr>
   <dimension ref="A1:T278"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S257" sqref="S257"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3772,30 +3781,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
@@ -17531,10 +17542,10 @@
   </sheetPr>
   <dimension ref="A1:T600"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="S593" sqref="S593"/>
+      <selection pane="bottomLeft" activeCell="A366" sqref="A366:S366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17562,30 +17573,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="22" t="s">
         <v>52</v>
       </c>
@@ -37159,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="N366" s="20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O366" s="20" t="str">
         <f t="shared" si="21"/>
@@ -37175,10 +37188,10 @@
       </c>
       <c r="R366" s="20" t="str">
         <f t="shared" si="24"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S366" s="23" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
     </row>
     <row r="367" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -49631,10 +49644,10 @@
   </sheetPr>
   <dimension ref="A1:T251"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="J243" sqref="J243:J251"/>
+      <selection pane="bottomLeft" activeCell="P251" sqref="P251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49653,37 +49666,40 @@
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="9" customWidth="1"/>
     <col min="14" max="14" width="5.140625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="17" width="4.5703125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="22" t="s">
         <v>52</v>
       </c>
@@ -62960,10 +62976,10 @@
   </sheetPr>
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3:R248"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62990,30 +63006,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="22" t="s">
         <v>52</v>
       </c>
@@ -74540,17 +74558,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:T248"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N244 M249:N1048576">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:R1">
+  <conditionalFormatting sqref="O1">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -74573,7 +74592,7 @@
   <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S50" sqref="K50:S50"/>
+      <selection activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74600,30 +74619,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="22" t="s">
         <v>52</v>
       </c>
@@ -78423,9 +78444,9 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78452,30 +78473,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="22" t="s">
         <v>52</v>
       </c>
@@ -82055,17 +82078,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:T76"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:N42 M77:N1048576 M59:N63 M43:M58 M70:N70 M64:M69 O2:R76">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:R1">
+  <conditionalFormatting sqref="O1">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -82099,11 +82123,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="21"/>
       <c r="E1" s="2" t="s">
         <v>52</v>
@@ -83533,25 +83557,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="91" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>787</v>
       </c>
       <c r="B3" s="1"/>
@@ -83563,7 +83587,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>804</v>
@@ -83573,7 +83597,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>805</v>
@@ -83597,7 +83621,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="87" t="s">
         <v>789</v>
       </c>
       <c r="B7" s="1"/>
@@ -83609,7 +83633,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>807</v>

--- a/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.04.xlsx
+++ b/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.04.xlsx
@@ -83858,7 +83858,7 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
-    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
+    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Ruchi</IM>
   </documentManagement>
 </p:properties>
 </file>
@@ -83883,49 +83883,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD109BD-D92A-4FCB-A6F7-B93227E955A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD109BD-D92A-4FCB-A6F7-B93227E955A2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}"/>
 </file>